--- a/datasets/centros_municipio2.xlsx
+++ b/datasets/centros_municipio2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jcmartinez\Desktop\Dashboard3\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F58ADE84-B192-4F46-BD7A-9E318052D11F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BF2EB29-0A54-4F60-A69A-A13EB7140F5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="977" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="979" uniqueCount="356">
   <si>
     <t>CVE_ENT</t>
   </si>
@@ -1088,13 +1088,16 @@
   </si>
   <si>
     <t>Villa de Cos</t>
+  </si>
+  <si>
+    <t>No disponible</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1106,6 +1109,14 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1143,11 +1154,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1453,7 +1465,7 @@
   <dimension ref="A1:I324"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1770,6 +1782,12 @@
       <c r="G11">
         <v>-90.06</v>
       </c>
+      <c r="H11" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="I11" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -10851,5 +10869,6 @@
   </sheetData>
   <autoFilter ref="A1:I324" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>